--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_P5_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.71003702099418</v>
+        <v>1083.59912398144</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.40998665641843e-05</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.712041619408023</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.658511919077431</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>27.53018219295432</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.10555953090583</v>
+        <v>24.4246226620485</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>9.151333236201161</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.31694680553867</v>
+        <v>20.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.54711261803086</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,104 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.4099999999994</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>156.3</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>150.5049999999994</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>154.0549999999994</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>149.7249999999994</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000009</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000009</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000009</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000009</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4950000000009</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.2300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.1650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.6300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>161.4950000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4099999999994</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>156.3</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.5049999999994</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>154.0549999999994</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>149.7249999999994</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
@@ -1604,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2028,7 +2181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,6 +2206,83 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
